--- a/movie_classifier_results.xlsx
+++ b/movie_classifier_results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t xml:space="preserve">Train</t>
   </si>
@@ -156,35 +156,246 @@
     <t xml:space="preserve">0,196</t>
   </si>
   <si>
-    <t xml:space="preserve">Autor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Título</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Features que usou</t>
+    <t xml:space="preserve">Author(s) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Dim.</t>
   </si>
   <si>
     <t xml:space="preserve">Machine Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado</t>
+    <t xml:space="preserve">Dataset (#movies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nro Genres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z. Rasheed, M. Shah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Genre Classification By Exploiting Audio-Visual Features of Previews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Comedy, Drama, Horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z. Rasheed  et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Use of Computable Features for Film Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Shift Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.Y. Huang et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Classification using visual effects features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Layer Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Drama, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.K. Jain et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies Genres Classifier using Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual-Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 train
+100 test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Comedy, Drama, Musical, Horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. Zhou, et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Genre Classification via Scene Categorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRIST+Shot Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y. F. Huang, S. H. Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Genre Classification Using SVM with Audio and Video features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y (SAHS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Animation, Comedy, Documentary, Drama, Musical, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edmund Helmer, Qinghui Ji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film Classification by Trailer Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual-Text (Subtitles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Adventure, Animation, Comedy, Drama, Horror, Musical, SciFi, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Ivasic-Kos et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Movie Posters Classification into Genres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAKEL, ML-kNN, Naive Bayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6739 posters
+80% train
+20% test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Adventure, Animation, Comedy, Crime, Disaster, Documentary, Drama, Fantasy, History, Horror, Mystery, Romance, SciFi, Suspense, Thriller, War, Western</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simões et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Genre Classification with Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN+Kmeans+SVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMTD4 
+1067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wehrmann, J. Barros, Rodrigo C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie genre classification : A multi-label approach based on convolutions through time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTT-MMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMTD9
+2861 train
+374 valid
+772 test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Adventure, Comedy, Crime, Drama, Horror, Romance, SciFi, Thriller</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Macro 0,646
+Micro  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val=""/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0,742</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Weigthed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val=""/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0,724</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -230,6 +441,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val=""/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,7 +532,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -394,7 +624,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -961,18 +1191,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="34.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="30.0051020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
@@ -993,6 +1233,398 @@
       </c>
       <c r="G1" s="9" t="s">
         <v>45</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6200</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1239</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>0.3395</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2048</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>0.7345</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/movie_classifier_results.xlsx
+++ b/movie_classifier_results.xlsx
@@ -349,42 +349,9 @@
     <t xml:space="preserve">Action, Adventure, Comedy, Crime, Drama, Horror, Romance, SciFi, Thriller</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Macro 0,646
-Micro  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val=""/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0,742</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val=""/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Weigthed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val=""/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0,724</t>
-    </r>
+    <t xml:space="preserve">Macro 0,646
+Micro  0,742 
+Weigthed 0,724</t>
   </si>
 </sst>
 </file>
@@ -395,11 +362,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -421,11 +389,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -433,6 +403,7 @@
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -440,17 +411,7 @@
       <color rgb="FF000099"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val=""/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,7 +501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,19 +590,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.1734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,22 +1155,22 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="15.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="34.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5918367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="30.0051020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,6 +1571,9 @@
       </c>
       <c r="F11" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2048</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>98</v>

--- a/movie_classifier_results.xlsx
+++ b/movie_classifier_results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t xml:space="preserve">Train</t>
   </si>
@@ -192,13 +192,16 @@
     <t xml:space="preserve">Accuracy</t>
   </si>
   <si>
-    <t xml:space="preserve">Z. Rasheed, M. Shah </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie Genre Classification By Exploiting Audio-Visual Features of Previews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi class</t>
+    <t xml:space="preserve">AU PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z. Rasheed  et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Use of Computable Features for Film Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Label</t>
   </si>
   <si>
     <t xml:space="preserve">Visual</t>
@@ -207,27 +210,12 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">Statistics</t>
+    <t xml:space="preserve">Mean Shift Classification</t>
   </si>
   <si>
     <t xml:space="preserve">Action, Comedy, Drama, Horror</t>
   </si>
   <si>
-    <t xml:space="preserve">Not reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z. Rasheed  et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On Use of Computable Features for Film Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean Shift Classification</t>
-  </si>
-  <si>
     <t xml:space="preserve">H.Y. Huang et al.</t>
   </si>
   <si>
@@ -240,25 +228,6 @@
     <t xml:space="preserve">Action, Drama, Thriller</t>
   </si>
   <si>
-    <t xml:space="preserve">S.K. Jain et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movies Genres Classifier using Neural Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual-Audio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 train
-100 test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action, Comedy, Drama, Musical, Horror</t>
-  </si>
-  <si>
     <t xml:space="preserve">H. Zhou, et al.</t>
   </si>
   <si>
@@ -266,36 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">CENTRIST+Shot Clustering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y. F. Huang, S. H. Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie Genre Classification Using SVM with Audio and Video features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y (SAHS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action, Animation, Comedy, Documentary, Drama, Musical, Thriller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edmund Helmer, Qinghui Ji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Film Classification by Trailer Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual-Text (Subtitles)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action, Adventure, Animation, Comedy, Drama, Horror, Musical, SciFi, Thriller</t>
   </si>
   <si>
     <t xml:space="preserve">M. Ivasic-Kos et al.</t>
@@ -322,6 +261,12 @@
   </si>
   <si>
     <t xml:space="preserve">Movie Genre Classification with Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual-Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y (SAHS)</t>
   </si>
   <si>
     <t xml:space="preserve">CNN+Kmeans+SVM</t>
@@ -349,9 +294,88 @@
     <t xml:space="preserve">Action, Adventure, Comedy, Crime, Drama, Horror, Romance, SciFi, Thriller</t>
   </si>
   <si>
+    <t xml:space="preserve">Not reported</t>
+  </si>
+  <si>
     <t xml:space="preserve">Macro 0,646
 Micro  0,742 
 Weigthed 0,724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faria, P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text, Poster, Visual-Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN (Melspectrogram) 
++CNN (Poster)
++LTMD9 (Transfer Learning)
++LSTM (Text) 
++Low Level Features (Z. Rasheed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro 0,5403
+Micro 0,6178
+Weigthed 0,6069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z. Rasheed, M. Shah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Genre Classification By Exploiting Audio-Visual Features of Previews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.K. Jain et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movies Genres Classifier using Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 train
+100 test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Comedy, Drama, Musical, Horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y. F. Huang, S. H. Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie Genre Classification Using SVM with Audio and Video features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Animation, Comedy, Documentary, Drama, Musical, Thriller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edmund Helmer, Qinghui Ji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film Classification by Trailer Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual-Text (Subtitles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action, Adventure, Animation, Comedy, Drama, Horror, Musical, SciFi, Thriller</t>
   </si>
 </sst>
 </file>
@@ -414,12 +438,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,6 +525,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -585,24 +619,24 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,25 +1186,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,43 +1241,46 @@
       <c r="L1" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>2003</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,37 +1291,37 @@
         <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="10" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="11" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
@@ -1295,300 +1329,382 @@
         <v>64</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>4</v>
+        <v>6200</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>44</v>
+        <v>1239</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="10" t="n">
-        <v>0.802</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>2009</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="10" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>6200</v>
+        <v>2048</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1239</v>
+        <v>76</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>0.7345</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>277</v>
+        <v>2048</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>223</v>
+        <v>80</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="10" t="n">
-        <v>0.919</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>4096</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>312</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>0.8259</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="11" t="n">
         <v>0.3395</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>728</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="10" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2048</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="10" t="n">
-        <v>0.7345</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>2048</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
